--- a/biology/Botanique/Justicia/Justicia.xlsx
+++ b/biology/Botanique/Justicia/Justicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Justicia, appartenant à la famille des Acanthacées comprend environ 420 espèces. Ce genre doit son nom au botaniste écossais James Justice (1698-1763).
 Ce sont des arbustes au feuillage persistant, aux inflorescences caractérisées par leurs bractées florales écailleuses colorées qui les font surnommer « plantes crevettes ».
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon Catalogue of Life                                   (12 septembre 2017)[2] :
+          <t>Selon Catalogue of Life                                   (12 septembre 2017) :
 Justicia abeggii Urb. &amp; Ekman
 Justicia abscondita Champl.
 Justicia acuta (C. B. Cl.) Fourc.
@@ -1508,7 +1522,7 @@
 Justicia vicina Benoist
 Justicia vidalii C. B. Cl.
 Justicia violaceotincta Champl.
-Justici</t>
+Justicia v</t>
         </is>
       </c>
     </row>
